--- a/my_package/traj_excel_30/tested_robot_traj_3_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_3_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="C1" t="n">
-        <v>1.56825638008009</v>
+        <v>0.002539946714806698</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.379315696670069</v>
       </c>
       <c r="E1" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="G1" t="n">
         <v>0.2028859211499618</v>
@@ -449,19 +449,19 @@
         <v>0.2075134216374266</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.775429176724752</v>
+        <v>1.775429176724752</v>
       </c>
       <c r="C2" t="n">
-        <v>1.568262572663097</v>
+        <v>0.002533754131800096</v>
       </c>
       <c r="D2" t="n">
-        <v>1.379361742301948</v>
+        <v>-1.379361742301948</v>
       </c>
       <c r="E2" t="n">
-        <v>1.381895662073592</v>
+        <v>0.1889006647213043</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796395341129</v>
+        <v>1.570796395341129</v>
       </c>
       <c r="G2" t="n">
         <v>0.20463276540763</v>
@@ -472,19 +472,19 @@
         <v>0.4150268432748532</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.786323296353211</v>
+        <v>1.786323296353211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.568301192443446</v>
+        <v>0.002495134351450242</v>
       </c>
       <c r="D3" t="n">
-        <v>1.379648903925345</v>
+        <v>-1.379648903925345</v>
       </c>
       <c r="E3" t="n">
-        <v>1.382144209046786</v>
+        <v>0.1886521177481109</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796394926116</v>
+        <v>1.570796394926116</v>
       </c>
       <c r="G3" t="n">
         <v>0.2155268852708008</v>
@@ -495,19 +495,19 @@
         <v>0.6225402649122798</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.812087371079111</v>
+        <v>1.812087371079111</v>
       </c>
       <c r="C4" t="n">
-        <v>1.568392526386965</v>
+        <v>0.002403800407931553</v>
       </c>
       <c r="D4" t="n">
-        <v>1.380328027505401</v>
+        <v>-1.380328027505401</v>
       </c>
       <c r="E4" t="n">
-        <v>1.382732010815872</v>
+        <v>0.1880643159790243</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796393944632</v>
+        <v>1.570796393944632</v>
       </c>
       <c r="G4" t="n">
         <v>0.2412909605517837</v>
@@ -518,19 +518,19 @@
         <v>0.8300536865497063</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.855199726752026</v>
+        <v>1.855199726752026</v>
       </c>
       <c r="C5" t="n">
-        <v>1.568545360187514</v>
+        <v>0.002250966607382557</v>
       </c>
       <c r="D5" t="n">
-        <v>1.381464440034891</v>
+        <v>-1.381464440034891</v>
       </c>
       <c r="E5" t="n">
-        <v>1.383715609846835</v>
+        <v>0.187080716948062</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796392302264</v>
+        <v>1.570796392302264</v>
       </c>
       <c r="G5" t="n">
         <v>0.2844033171535473</v>
@@ -541,19 +541,19 @@
         <v>1.037567108187133</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.915435061021994</v>
+        <v>1.915435061021994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.568758895145651</v>
+        <v>0.002037431649245206</v>
       </c>
       <c r="D6" t="n">
-        <v>1.383052202696291</v>
+        <v>-1.383052202696291</v>
       </c>
       <c r="E6" t="n">
-        <v>1.385089865915492</v>
+        <v>0.1857064608794044</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796390007595</v>
+        <v>1.570796390007595</v>
       </c>
       <c r="G6" t="n">
         <v>0.3446386527212763</v>
@@ -564,19 +564,19 @@
         <v>1.24508052982456</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.990405168979428</v>
+        <v>1.990405168979428</v>
       </c>
       <c r="C7" t="n">
-        <v>1.569024665047292</v>
+        <v>0.001771661747604192</v>
       </c>
       <c r="D7" t="n">
-        <v>1.385028364023833</v>
+        <v>-1.385028364023833</v>
       </c>
       <c r="E7" t="n">
-        <v>1.386800292645535</v>
+        <v>0.1839960341493616</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796387151603</v>
+        <v>1.570796387151603</v>
       </c>
       <c r="G7" t="n">
         <v>0.4196087622939282</v>
@@ -587,19 +587,19 @@
         <v>1.452593951461986</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.076099668795015</v>
+        <v>2.076099668795015</v>
       </c>
       <c r="C8" t="n">
-        <v>1.56932845304237</v>
+        <v>0.00146787375252626</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38728721306557</v>
+        <v>-1.38728721306557</v>
       </c>
       <c r="E8" t="n">
-        <v>1.388755394046555</v>
+        <v>0.1820409327483412</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796383887065</v>
+        <v>1.570796383887065</v>
       </c>
       <c r="G8" t="n">
         <v>0.5053032639557899</v>
@@ -610,19 +610,19 @@
         <v>1.660107373099413</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.167426727359634</v>
+        <v>2.167426727359634</v>
       </c>
       <c r="C9" t="n">
-        <v>1.569652208523497</v>
+        <v>0.001144118271399527</v>
       </c>
       <c r="D9" t="n">
-        <v>1.389694532545436</v>
+        <v>-1.389694532545436</v>
       </c>
       <c r="E9" t="n">
-        <v>1.390839001052081</v>
+        <v>0.1799573257428158</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796380407954</v>
+        <v>1.570796380407954</v>
       </c>
       <c r="G9" t="n">
         <v>0.5966303244880351</v>
@@ -633,19 +633,19 @@
         <v>1.867620794736839</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.258753785924252</v>
+        <v>2.258753785924252</v>
       </c>
       <c r="C10" t="n">
-        <v>1.569975964004624</v>
+        <v>0.0008203627902727949</v>
       </c>
       <c r="D10" t="n">
-        <v>1.392101852025302</v>
+        <v>-1.392101852025302</v>
       </c>
       <c r="E10" t="n">
-        <v>1.392922608057606</v>
+        <v>0.1778737187372904</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796376928843</v>
+        <v>1.570796376928843</v>
       </c>
       <c r="G10" t="n">
         <v>0.6879573850202804</v>
@@ -656,19 +656,19 @@
         <v>2.075134216374266</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.34444828573984</v>
+        <v>2.34444828573984</v>
       </c>
       <c r="C11" t="n">
-        <v>1.570279751999702</v>
+        <v>0.0005165747951948628</v>
       </c>
       <c r="D11" t="n">
-        <v>1.39436070106704</v>
+        <v>-1.39436070106704</v>
       </c>
       <c r="E11" t="n">
-        <v>1.394877709458627</v>
+        <v>0.17591861733627</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796373664305</v>
+        <v>1.570796373664305</v>
       </c>
       <c r="G11" t="n">
         <v>0.773651886682142</v>
@@ -679,19 +679,19 @@
         <v>2.282647638011692</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.419418393697272</v>
+        <v>2.419418393697272</v>
       </c>
       <c r="C12" t="n">
-        <v>1.570545521901343</v>
+        <v>0.0002508048935538493</v>
       </c>
       <c r="D12" t="n">
-        <v>1.396336862394582</v>
+        <v>-1.396336862394582</v>
       </c>
       <c r="E12" t="n">
-        <v>1.396588136188669</v>
+        <v>0.1742081906062272</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796370808313</v>
+        <v>1.570796370808313</v>
       </c>
       <c r="G12" t="n">
         <v>0.8486219962547938</v>
@@ -702,19 +702,19 @@
         <v>2.490161059649119</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.479653727967241</v>
+        <v>2.479653727967241</v>
       </c>
       <c r="C13" t="n">
-        <v>1.57075905685948</v>
+        <v>3.72699354164981e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>1.397924625055981</v>
+        <v>-1.397924625055981</v>
       </c>
       <c r="E13" t="n">
-        <v>1.397962392257327</v>
+        <v>0.1728339345375696</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796368513644</v>
+        <v>1.570796368513644</v>
       </c>
       <c r="G13" t="n">
         <v>0.908857331822523</v>
@@ -725,19 +725,19 @@
         <v>2.697674481286546</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.522766083640156</v>
+        <v>2.522766083640156</v>
       </c>
       <c r="C14" t="n">
-        <v>1.570911890660029</v>
+        <v>-0.0001155638651324981</v>
       </c>
       <c r="D14" t="n">
-        <v>1.399061037585471</v>
+        <v>-1.399061037585471</v>
       </c>
       <c r="E14" t="n">
-        <v>1.398945991288289</v>
+        <v>0.1718503355066073</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796366871276</v>
+        <v>1.570796366871276</v>
       </c>
       <c r="G14" t="n">
         <v>0.9519696884242865</v>
@@ -748,19 +748,19 @@
         <v>2.905187902923972</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.548530158366056</v>
+        <v>2.548530158366056</v>
       </c>
       <c r="C15" t="n">
-        <v>1.571003224603548</v>
+        <v>-0.0002068978086511874</v>
       </c>
       <c r="D15" t="n">
-        <v>1.399740161165527</v>
+        <v>-1.399740161165527</v>
       </c>
       <c r="E15" t="n">
-        <v>1.399533793057376</v>
+        <v>0.1712625337375207</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796365889792</v>
+        <v>1.570796365889792</v>
       </c>
       <c r="G15" t="n">
         <v>0.977733763705269</v>
@@ -771,19 +771,19 @@
         <v>3.112701324561399</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.559424277994514</v>
+        <v>2.559424277994514</v>
       </c>
       <c r="C16" t="n">
-        <v>1.571041844383898</v>
+        <v>-0.0002455175890010383</v>
       </c>
       <c r="D16" t="n">
-        <v>1.400027322788925</v>
+        <v>-1.400027322788925</v>
       </c>
       <c r="E16" t="n">
-        <v>1.399782340030569</v>
+        <v>0.1710139867643273</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796365474779</v>
+        <v>1.570796365474779</v>
       </c>
       <c r="G16" t="n">
         <v>0.9886278835684386</v>
@@ -794,19 +794,19 @@
         <v>3.320214746198825</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.561171122214548</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="C17" t="n">
-        <v>1.571048036966904</v>
+        <v>-0.000251710172007643</v>
       </c>
       <c r="D17" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.400073368420803</v>
       </c>
       <c r="E17" t="n">
-        <v>1.399822193902047</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="G17" t="n">
         <v>0.9903747278261079</v>
